--- a/rdm_outputs/RDM_outputs.xlsx
+++ b/rdm_outputs/RDM_outputs.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
-    <t>Neker cube test</t>
-  </si>
-  <si>
-    <t>Cambridge Face Memory Test</t>
-  </si>
-  <si>
-    <t>Inverted depth decsion</t>
+    <t>Neker_cube</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Inverted_depth</t>
   </si>
   <si>
     <t>Aliza</t>
@@ -434,13 +434,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.818181818181818</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.666666666666666</v>
+        <v>0.6042000000000001</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>0.6531</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.818181818181818</v>
+        <v>0.925</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.5708</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.4049</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,13 +462,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.727272727272727</v>
+        <v>0.675</v>
       </c>
       <c r="C4">
-        <v>0.7333333333333329</v>
+        <v>0.6167</v>
       </c>
       <c r="D4">
-        <v>0.31578947368421</v>
+        <v>0.4868</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,13 +476,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.5621780830000001</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.833333333</v>
+        <v>0.7292000000000001</v>
       </c>
       <c r="D5">
-        <v>0.42</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.409196164</v>
+        <v>0.575</v>
       </c>
       <c r="C6">
-        <v>0.533333333</v>
+        <v>0.4542</v>
       </c>
       <c r="D6">
-        <v>0.18</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,13 +504,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.314409146</v>
+        <v>0.775</v>
       </c>
       <c r="C7">
-        <v>0.645695369</v>
+        <v>0.5297999999999999</v>
       </c>
       <c r="D7">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +518,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.428383157</v>
+        <v>0.675</v>
       </c>
       <c r="C8">
-        <v>0.818547625</v>
+        <v>0.604</v>
       </c>
       <c r="D8">
-        <v>0.27</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.728297026</v>
+        <v>0.55</v>
       </c>
       <c r="C9">
-        <v>0.752931516</v>
+        <v>0.6722</v>
       </c>
       <c r="D9">
-        <v>0.51</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.849623173</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>0.712930879</v>
+        <v>0.6191</v>
       </c>
       <c r="D10">
-        <v>0.23</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.725281396</v>
+        <v>0.9</v>
       </c>
       <c r="C11">
-        <v>0.580138925</v>
+        <v>0.5661</v>
       </c>
       <c r="D11">
-        <v>0.33</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -601,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.01842306479201684</v>
+        <v>-0.389615694942054</v>
       </c>
       <c r="D2">
-        <v>-0.07559012936221186</v>
+        <v>-0.08973437191275288</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -612,13 +612,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.01842306479201684</v>
+        <v>-0.389615694942054</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5246123679161039</v>
+        <v>0.3939146848698462</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -626,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.07559012936221186</v>
+        <v>-0.08973437191275288</v>
       </c>
       <c r="C4">
-        <v>0.5246123679161039</v>
+        <v>0.3939146848698462</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.018423064792017</v>
+        <v>1.389615694942054</v>
       </c>
       <c r="D2">
-        <v>1.075590129362212</v>
+        <v>1.089734371912753</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -678,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.018423064792017</v>
+        <v>1.389615694942054</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4753876320838961</v>
+        <v>0.6060853151301538</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -692,10 +692,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.075590129362212</v>
+        <v>1.089734371912753</v>
       </c>
       <c r="C4">
-        <v>0.4753876320838961</v>
+        <v>0.6060853151301538</v>
       </c>
       <c r="D4">
         <v>0</v>
